--- a/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_28.xlsx
+++ b/ArtigoKrigingVsg/peaks/Original/content/results/metrics_1_28.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9914768453643101</v>
+        <v>0.9227952562117977</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7228003946226966</v>
+        <v>0.7349556166772832</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7083207533959421</v>
+        <v>0.7324209464519369</v>
       </c>
       <c r="E2" t="n">
-        <v>0.995920731257331</v>
+        <v>0.1513545009797578</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03576985671114957</v>
+        <v>0.3240117938446241</v>
       </c>
       <c r="G2" t="n">
-        <v>1.853635037544846</v>
+        <v>1.772353011696175</v>
       </c>
       <c r="H2" t="n">
-        <v>1.043319752568264</v>
+        <v>0.9571147594164539</v>
       </c>
       <c r="I2" t="n">
-        <v>0.02712225698184594</v>
+        <v>0.399510128929852</v>
       </c>
       <c r="J2" t="n">
-        <v>0.366796692591126</v>
+        <v>1.659559645999569</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1891292063938026</v>
+        <v>0.5692203385725286</v>
       </c>
       <c r="L2" t="n">
-        <v>1.004989163689184</v>
+        <v>0.7352980212975921</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1971808282614165</v>
+        <v>0.5934532268341026</v>
       </c>
       <c r="N2" t="n">
-        <v>136.6612994631159</v>
+        <v>36.25395072619457</v>
       </c>
       <c r="O2" t="n">
-        <v>215.8882280795489</v>
+        <v>56.97483974895398</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9915324501742244</v>
+        <v>0.9219839533878588</v>
       </c>
       <c r="C3" t="n">
-        <v>0.722644887566496</v>
+        <v>0.7289741641032882</v>
       </c>
       <c r="D3" t="n">
-        <v>0.708740108472739</v>
+        <v>0.7310115017047399</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9956394939743092</v>
+        <v>0.08506754181546294</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03553649521906075</v>
+        <v>0.3274166582407393</v>
       </c>
       <c r="G3" t="n">
-        <v>1.854674913945704</v>
+        <v>1.812351012600536</v>
       </c>
       <c r="H3" t="n">
-        <v>1.041819743774165</v>
+        <v>0.9621562615528751</v>
       </c>
       <c r="I3" t="n">
-        <v>0.02899214846097481</v>
+        <v>0.4307155163768708</v>
       </c>
       <c r="J3" t="n">
-        <v>0.3639821997560892</v>
+        <v>1.700705206654701</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1885112601916945</v>
+        <v>0.5722033364467035</v>
       </c>
       <c r="L3" t="n">
-        <v>1.004956614532161</v>
+        <v>0.7325164116155158</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1965365748101597</v>
+        <v>0.596563217103438</v>
       </c>
       <c r="N3" t="n">
-        <v>136.6743901524529</v>
+        <v>36.2330434698925</v>
       </c>
       <c r="O3" t="n">
-        <v>215.9013187688859</v>
+        <v>56.95393249265191</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9915800784317774</v>
+        <v>0.9225590931963141</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7224895641768707</v>
+        <v>0.7187631053412344</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7091474191459066</v>
+        <v>0.7244250221077752</v>
       </c>
       <c r="E4" t="n">
-        <v>0.995342300347666</v>
+        <v>-0.02969700106858753</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03533660961086857</v>
+        <v>0.3250029195000177</v>
       </c>
       <c r="G4" t="n">
-        <v>1.855713562167327</v>
+        <v>1.880632409559992</v>
       </c>
       <c r="H4" t="n">
-        <v>1.040362817113475</v>
+        <v>0.9857157171651881</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03096813053611277</v>
+        <v>0.4847423124620627</v>
       </c>
       <c r="J4" t="n">
-        <v>0.3611665172878624</v>
+        <v>1.767962253454606</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1879803436821748</v>
+        <v>0.5700902731147215</v>
       </c>
       <c r="L4" t="n">
-        <v>1.004928734576521</v>
+        <v>0.7344883195302199</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1959830560856811</v>
+        <v>0.5943601962907693</v>
       </c>
       <c r="N4" t="n">
-        <v>136.6856715060019</v>
+        <v>36.24784222723154</v>
       </c>
       <c r="O4" t="n">
-        <v>215.912600122435</v>
+        <v>56.96873124999095</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9916198789372233</v>
+        <v>0.9226300614130352</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7223344485401478</v>
+        <v>0.717985716614268</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7095426806385104</v>
+        <v>0.7219929122887588</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9950294218118041</v>
+        <v>-0.07640858458081179</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03516957540373726</v>
+        <v>0.3247050810761402</v>
       </c>
       <c r="G5" t="n">
-        <v>1.856750821144334</v>
+        <v>1.885830811556762</v>
       </c>
       <c r="H5" t="n">
-        <v>1.038948989673009</v>
+        <v>0.9944152329659796</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03304839849320718</v>
+        <v>0.5067323551513023</v>
       </c>
       <c r="J5" t="n">
-        <v>0.3583576130222343</v>
+        <v>1.793990989118468</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1875355310434192</v>
+        <v>0.5698289928356929</v>
       </c>
       <c r="L5" t="n">
-        <v>1.004905436719674</v>
+        <v>0.7347316391304063</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1955193068520046</v>
+        <v>0.5940877927693378</v>
       </c>
       <c r="N5" t="n">
-        <v>136.6951478105043</v>
+        <v>36.2496759029411</v>
       </c>
       <c r="O5" t="n">
-        <v>215.9220764269374</v>
+        <v>56.97056492570051</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.991652069144381</v>
+        <v>0.9226358369146158</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7221794888026289</v>
+        <v>0.7176262848066655</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7099260565098752</v>
+        <v>0.7208224716653425</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9947011328914662</v>
+        <v>-0.09988431544371901</v>
       </c>
       <c r="F6" t="n">
-        <v>0.03503447999050719</v>
+        <v>0.3246808425315164</v>
       </c>
       <c r="G6" t="n">
-        <v>1.857787037622648</v>
+        <v>1.888234333709232</v>
       </c>
       <c r="H6" t="n">
-        <v>1.037577676410548</v>
+        <v>0.9986018312098931</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03523112707114073</v>
+        <v>0.5177838392805298</v>
       </c>
       <c r="J6" t="n">
-        <v>0.3555642484660387</v>
+        <v>1.806775074948751</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1871749983050813</v>
+        <v>0.5698077241767756</v>
       </c>
       <c r="L6" t="n">
-        <v>1.004886593671582</v>
+        <v>0.7347514408501115</v>
       </c>
       <c r="M6" t="n">
-        <v>0.19514342548859</v>
+        <v>0.5940656186595782</v>
       </c>
       <c r="N6" t="n">
-        <v>136.7028451196826</v>
+        <v>36.24982520426565</v>
       </c>
       <c r="O6" t="n">
-        <v>215.9297737361156</v>
+        <v>56.97071422702506</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9916767711347989</v>
+        <v>0.9226240422070708</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7220247035391278</v>
+        <v>0.7168794359077308</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7102975081600276</v>
+        <v>0.7196832138859275</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9943578731368261</v>
+        <v>-0.1233969678580042</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0349308110210353</v>
+        <v>0.3247303423959286</v>
       </c>
       <c r="G7" t="n">
-        <v>1.8588220873924</v>
+        <v>1.89322851573533</v>
       </c>
       <c r="H7" t="n">
-        <v>1.036249015395957</v>
+        <v>1.002676890228899</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03751339378710685</v>
+        <v>0.5288527046764563</v>
       </c>
       <c r="J7" t="n">
-        <v>0.3527984502987656</v>
+        <v>1.819379994577758</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1868978625373637</v>
+        <v>0.5698511581070346</v>
       </c>
       <c r="L7" t="n">
-        <v>1.004872133969874</v>
+        <v>0.7347110018528142</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1948544914774905</v>
+        <v>0.594110901662169</v>
       </c>
       <c r="N7" t="n">
-        <v>136.7087720039329</v>
+        <v>36.24952031352366</v>
       </c>
       <c r="O7" t="n">
-        <v>215.9357006203659</v>
+        <v>56.97040933628307</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.991694184253388</v>
+        <v>0.922596294466912</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7218701004665777</v>
+        <v>0.716658034161315</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7106572666181565</v>
+        <v>0.7185754286533619</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9940000006532548</v>
+        <v>-0.14691915018923</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03485773188737575</v>
+        <v>0.3248467937255082</v>
       </c>
       <c r="G8" t="n">
-        <v>1.859855918850423</v>
+        <v>1.894709030233074</v>
       </c>
       <c r="H8" t="n">
-        <v>1.034962180251223</v>
+        <v>1.006639373772708</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03989281766880098</v>
+        <v>0.5399260563960009</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3500716868932611</v>
+        <v>1.831793553117708</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1867022546392404</v>
+        <v>0.5699533259184546</v>
       </c>
       <c r="L8" t="n">
-        <v>1.004861940924846</v>
+        <v>0.7346158667436984</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1946505561461798</v>
+        <v>0.5942174189688376</v>
       </c>
       <c r="N8" t="n">
-        <v>136.7129606089574</v>
+        <v>36.24880322343935</v>
       </c>
       <c r="O8" t="n">
-        <v>215.9398892253905</v>
+        <v>56.96969224619875</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9917044609727975</v>
+        <v>0.9225539317153764</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7217159207768447</v>
+        <v>0.7166034544610786</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7110051858082221</v>
+        <v>0.7174987347741617</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9936279643093145</v>
+        <v>-0.1704309378927347</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03481460269443561</v>
+        <v>0.3250245811313566</v>
       </c>
       <c r="G9" t="n">
-        <v>1.860886919145601</v>
+        <v>1.895074004939872</v>
       </c>
       <c r="H9" t="n">
-        <v>1.033717693481872</v>
+        <v>1.010490645348309</v>
       </c>
       <c r="I9" t="n">
-        <v>0.0423664142772779</v>
+        <v>0.5509945147188728</v>
       </c>
       <c r="J9" t="n">
-        <v>0.347385090994536</v>
+        <v>1.844009632864415</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1865867162861162</v>
+        <v>0.5701092712203132</v>
       </c>
       <c r="L9" t="n">
-        <v>1.004855925284216</v>
+        <v>0.7344706230241476</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1945300990861658</v>
+        <v>0.5943800031850476</v>
       </c>
       <c r="N9" t="n">
-        <v>136.7154367251208</v>
+        <v>36.2477089305244</v>
       </c>
       <c r="O9" t="n">
-        <v>215.9423653415538</v>
+        <v>56.9685979532838</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9917078149782647</v>
+        <v>0.9224984006027885</v>
       </c>
       <c r="C10" t="n">
-        <v>0.721561808531</v>
+        <v>0.7162293756396879</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7113410745187129</v>
+        <v>0.7164531213546875</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9932421095347401</v>
+        <v>-0.1939082165731409</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03480052665098721</v>
+        <v>0.3252576333315315</v>
       </c>
       <c r="G10" t="n">
-        <v>1.861917468443186</v>
+        <v>1.897575471740986</v>
       </c>
       <c r="H10" t="n">
-        <v>1.032516239040393</v>
+        <v>1.014230743921618</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04493188691805115</v>
+        <v>0.5620467275019014</v>
       </c>
       <c r="J10" t="n">
-        <v>0.3447510014002594</v>
+        <v>1.856018350997567</v>
       </c>
       <c r="K10" t="n">
-        <v>0.186548992629248</v>
+        <v>0.5703136271662562</v>
       </c>
       <c r="L10" t="n">
-        <v>1.004853961963943</v>
+        <v>0.7342802306381322</v>
       </c>
       <c r="M10" t="n">
-        <v>0.194490769455126</v>
+        <v>0.5945930589866845</v>
       </c>
       <c r="N10" t="n">
-        <v>136.7162455173343</v>
+        <v>36.24627538548829</v>
       </c>
       <c r="O10" t="n">
-        <v>215.9431741337674</v>
+        <v>56.9671644082477</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.991704469991197</v>
+        <v>0.9221651930152884</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7214081544342698</v>
+        <v>0.7152462088723368</v>
       </c>
       <c r="D11" t="n">
-        <v>0.711665751382586</v>
+        <v>0.7125601445964488</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9928430055929495</v>
+        <v>-0.2872068183723386</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03481456484614238</v>
+        <v>0.3266560342956574</v>
       </c>
       <c r="G11" t="n">
-        <v>1.862944954095533</v>
+        <v>1.90414991244133</v>
       </c>
       <c r="H11" t="n">
-        <v>1.031354888724165</v>
+        <v>1.028155696058076</v>
       </c>
       <c r="I11" t="n">
-        <v>0.04758545067041962</v>
+        <v>0.6059681722945796</v>
       </c>
       <c r="J11" t="n">
-        <v>0.3421737817254157</v>
+        <v>1.901955750591912</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1865866148632918</v>
+        <v>0.5715383051866755</v>
       </c>
       <c r="L11" t="n">
-        <v>1.004855920005153</v>
+        <v>0.7331378046238461</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1945299933455618</v>
+        <v>0.595869874085866</v>
       </c>
       <c r="N11" t="n">
-        <v>136.7154388993988</v>
+        <v>36.2376950891797</v>
       </c>
       <c r="O11" t="n">
-        <v>215.9423675158319</v>
+        <v>56.9585841119391</v>
       </c>
     </row>
   </sheetData>
